--- a/excel/diem/HH/12a2.xlsx
+++ b/excel/diem/HH/12a2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\mvc-php\excel\diem\HH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5067C42-773D-47E0-9A9C-2A38901984DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C062F9-DE7C-4C61-87DA-DA8A35281E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{9CBF4156-4CDB-4C3F-B325-C52CFB6B8263}"/>
   </bookViews>
@@ -63,13 +63,13 @@
     <t>mã lớp</t>
   </si>
   <si>
+    <t>năm</t>
+  </si>
+  <si>
+    <t>12a2</t>
+  </si>
+  <si>
     <t>HH</t>
-  </si>
-  <si>
-    <t>12a2</t>
-  </si>
-  <si>
-    <t>năm</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J6"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -437,211 +441,212 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>2013410006</v>
-      </c>
-      <c r="C2">
+        <v>2013410002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>412013001</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>2</v>
-      </c>
       <c r="F2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>412016002</v>
       </c>
       <c r="G2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="G2:J5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>6</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2014410003</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>412016002</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>2014410011</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>412015001</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2014410004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>412016002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>2014410012</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>412015001</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
       <c r="J4">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2015410003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>412016002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>2015410011</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>412015001</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
       <c r="J5">
-        <v>2019</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>2015410012</v>
-      </c>
-      <c r="C6">
+        <v>2015410004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>412015001</v>
-      </c>
-      <c r="E6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>9</v>
-      </c>
       <c r="F6">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>412016002</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>2019</v>
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>